--- a/test/org/hy/common/report/junit/zxing/JU_ZXing.xlsx
+++ b/test/org/hy/common/report/junit/zxing/JU_ZXing.xlsx
@@ -102,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,13 +156,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,7 +510,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -515,31 +521,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
